--- a/Brain/Snowflake/Certifications/DAA-C01/Study Resources.xlsx
+++ b/Brain/Snowflake/Certifications/DAA-C01/Study Resources.xlsx
@@ -1,19 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Brain\Snowflake\Certifications\DAA-C01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duong\OneDrive\Máy tính\Study\Brain\Snowflake\Certifications\DAA-C01\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553BCDE8-83EA-4EDF-B432-ABFF48CA0514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="1455" yWindow="2220" windowWidth="23415" windowHeight="12990" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Linear regression" sheetId="1" r:id="rId1"/>
     <sheet name="GENERATOR &amp; SEQ1" sheetId="2" r:id="rId2"/>
+    <sheet name="Broadcast Join" sheetId="3" r:id="rId3"/>
+    <sheet name="star schema" sheetId="4" r:id="rId4"/>
+    <sheet name="box plot" sheetId="5" r:id="rId5"/>
+    <sheet name="correlated subquery" sheetId="6" r:id="rId6"/>
+    <sheet name="skewness" sheetId="7" r:id="rId7"/>
+    <sheet name="denormalized schema" sheetId="9" r:id="rId8"/>
+    <sheet name="A B testing uses a t-test" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="80">
   <si>
     <t>CORR | Snowflake Documentation</t>
   </si>
@@ -542,13 +550,603 @@
   <si>
     <t>Wrap-around: When the sequence reaches the largest number that can fit in that integer size, it wraps around back to the start.</t>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>a small table is copied (broadcast) to all compute nodes so it can be joined locally with a much larger table, avoiding expensive data shuffling across the cluster.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>both tables are large</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Broadcast Join</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is no longer efficient (or even possible), because you </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>can’t copy a huge table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to every compute node — it would blow up memory and network bandwidth.</t>
+    </r>
+  </si>
+  <si>
+    <t>A star schema is a way of organizing data in a data warehouse where you put all the numbers you want to analyze (facts) in one big central table, and all the descriptive details (dimensions) in smaller surrounding tables. It’s called a “star” because the diagram looks like a star: one big center with points around it.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>correlated subquery</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is special because the inner query depends on the outer query.</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT employee_id, salary</t>
+  </si>
+  <si>
+    <t>FROM employees e</t>
+  </si>
+  <si>
+    <t>WHERE salary &gt; (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    SELECT AVG(salary)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FROM employees d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    WHERE d.department_id = e.department_id</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <r>
+      <t>Non‑correlated subquery</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> does </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> depend on the outer query.</t>
+    </r>
+  </si>
+  <si>
+    <t>FROM employees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FROM employees</t>
+  </si>
+  <si>
+    <t>🔄 Types of skewness</t>
+  </si>
+  <si>
+    <r>
+      <t>Zero skew (no skew):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Data is perfectly balanced, like a normal bell curve.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Positive skew (right skew):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Tail is longer on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>right</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → most values are small, but a few very large values pull the average up.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Negative skew (left skew):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Tail is longer on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → most values are large, but a few very small values pull the average down.</t>
+    </r>
+  </si>
+  <si>
+    <t>🧩 Example</t>
+  </si>
+  <si>
+    <r>
+      <t>Positive skew:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Incomes in a country → most people earn modest amounts, but a few billionaires stretch the curve to the right.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Negative skew:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Age at retirement → most people retire around 60–65, but a few retire very early (like 30s), pulling the curve left.</t>
+    </r>
+  </si>
+  <si>
+    <t>In simple terms: A/B testing with a t‑test is a way to check if two versions (A and B) are really different, or if the difference you see is just random chance.</t>
+  </si>
+  <si>
+    <t>🧪 What is A/B Testing?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You show </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Version A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to one group of people and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Version B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to another.</t>
+    </r>
+  </si>
+  <si>
+    <t>Example: Website button color → A = blue button, B = red button.</t>
+  </si>
+  <si>
+    <t>You measure a result (like how many people click).</t>
+  </si>
+  <si>
+    <t>📊 Where does the t‑test come in?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t‑test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is a statistical tool that compares the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>average results</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of A and B.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It asks: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“Is the difference between A and B big enough that it’s unlikely to be random?”</t>
+    </r>
+  </si>
+  <si>
+    <t>If yes → you can be confident one version is better.</t>
+  </si>
+  <si>
+    <t>If no → the difference might just be luck, so you can’t conclude much.</t>
+  </si>
+  <si>
+    <t>Group A (blue button): 1000 visitors → 50 clicks (5% click rate).</t>
+  </si>
+  <si>
+    <t>Group B (red button): 1000 visitors → 70 clicks (7% click rate).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A t‑test checks if that 2% difference is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>statistically significant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (real) or could have happened by chance.</t>
+    </r>
+  </si>
+  <si>
+    <t>⚡ Key Points</t>
+  </si>
+  <si>
+    <r>
+      <t>Null hypothesis (H₀):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A and B are the same (no real difference).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Alternative hypothesis (H₁):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A and B are different.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>p‑value:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The probability that the difference is just random.</t>
+    </r>
+  </si>
+  <si>
+    <t>If p &lt; 0.05 → usually means the difference is significant.</t>
+  </si>
+  <si>
+    <t>🔑 Why use it?</t>
+  </si>
+  <si>
+    <t>Prevents you from making decisions based on random noise.</t>
+  </si>
+  <si>
+    <t>Gives confidence that your changes (like a new design, feature, or ad) actually improve results.</t>
+  </si>
+  <si>
+    <t>🔑 What is a p‑value?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It’s a number between </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0 and 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Smaller p‑value = stronger evidence</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that your results are real, not just luck.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -603,6 +1201,24 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -637,7 +1253,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -661,6 +1277,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -698,7 +1323,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Correlation Coefficient | Types, Formulas &amp; Examples"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Correlation Coefficient | Types, Formulas &amp; Examples">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -753,7 +1384,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4" descr="Linear Regression (3 of 4) | Statistics for the Social Sciences"/>
+        <xdr:cNvPr id="5" name="Picture 4" descr="Linear Regression (3 of 4) | Statistics for the Social Sciences">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -793,6 +1430,56 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>115889</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DA1D011-9783-67BA-5CEF-415C74F83F22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="12144375"/>
+          <a:ext cx="3544889" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -813,7 +1500,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -851,7 +1544,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -889,7 +1588,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -927,7 +1632,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -942,6 +1653,672 @@
         <a:xfrm>
           <a:off x="4800600" y="5715000"/>
           <a:ext cx="12666667" cy="5171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>43113</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D5F116F-C2E3-B8E1-C4C9-4BC653EC2C7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="11191875"/>
+          <a:ext cx="7772400" cy="5281863"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>303819</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104167</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{875CEBD3-4346-D08C-6B86-09DC0951C059}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="476250"/>
+          <a:ext cx="7847619" cy="4866667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>132390</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>237827</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5416A7D-A593-4A0E-D419-1CBE34742BC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="6191250"/>
+          <a:ext cx="7676190" cy="2380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>665895</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>170744</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EC3FA42-E561-367B-F979-B1EAA7A0387E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="6191250"/>
+          <a:ext cx="6838095" cy="5647619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>684857</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>37917</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{979438F7-7978-FD45-232E-6DE8A4B21C1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="8810625"/>
+          <a:ext cx="7542857" cy="1466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="In-Depth Guide to Star Schema in Data Warehouse Modeling: Concepts, Design  Principles, and Advantages | by Nilimesh Halder, PhD | Analyst's corner |  Medium">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8839A44-0781-4BD8-A35C-AFF9A1298B2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="476250"/>
+          <a:ext cx="8077200" cy="5514975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>113514</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123482</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CA07E3D-5939-4326-B934-523D10150F64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9601200" y="476250"/>
+          <a:ext cx="6285714" cy="2742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>342171</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161637</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C2E286A-2D5C-19C3-5373-5FE14DB73EB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9601200" y="3571875"/>
+          <a:ext cx="5828571" cy="2304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="trend chart (1)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7CDE0D2-9087-FBB2-6471-B057D6A47D7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="238125"/>
+          <a:ext cx="15240000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Box plot diagram">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0160581-A5F4-BC0A-7FCA-B5AE418CC03F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="10001250"/>
+          <a:ext cx="2857500" cy="3438525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>256371</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>189851</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DBD6F45-042A-7E1C-BDBE-9738FA4A8969}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="238125"/>
+          <a:ext cx="6428571" cy="5190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76E5C436-53FE-440F-9AC7-D2AAEC7B8EF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="2238375"/>
+          <a:ext cx="6086475" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB7F48B1-C586-CB6B-A654-526B701235CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="238125"/>
+          <a:ext cx="7572375" cy="7505700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1215,11 +2592,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1317,13 +2694,14 @@
     <row r="49" spans="2:2">
       <c r="B49" s="3"/>
     </row>
+    <row r="50" spans="2:2" s="2" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="4"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://docs.snowflake.com/en/sql-reference/functions/corr"/>
-    <hyperlink ref="B23" r:id="rId2"/>
-    <hyperlink ref="B24" r:id="rId3"/>
-    <hyperlink ref="B41" r:id="rId4"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://docs.snowflake.com/en/sql-reference/functions/corr" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B23" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B24" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B41" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId5"/>
@@ -1331,11 +2709,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="P54" sqref="P54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1420,11 +2798,411 @@
   </sheetData>
   <phoneticPr fontId="4"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B15" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B15" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <drawing r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FF99B9-E63C-4C0D-A0E4-8D01109A5FAE}">
+  <dimension ref="A1:A25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C74B32A-A131-43B2-BF81-4D83B2BA3525}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD372014-25A2-4DF6-9911-694674337748}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451EE663-A973-499F-A7AB-F97EECA312EA}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC57F92-C820-454D-A5FF-1DAA58C5D264}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="22.5">
+      <c r="A1" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="22.5">
+      <c r="A6" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6494590-46B8-44FB-8585-AE2DB9990B27}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEFB30C-20E2-448F-9DAF-42EDEC8CCE36}">
+  <dimension ref="A1:C42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="22.5">
+      <c r="A3" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="22.5">
+      <c r="A8" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:2" ht="22.5">
+      <c r="A14" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="22.5">
+      <c r="A19" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3"/>
+      <c r="C23" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="22.5">
+      <c r="C24" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="C25" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="C26" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="22.5">
+      <c r="A28" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="3"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="3"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="3"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="10"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Brain/Snowflake/Certifications/DAA-C01/Study Resources.xlsx
+++ b/Brain/Snowflake/Certifications/DAA-C01/Study Resources.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duong\OneDrive\Máy tính\Study\Brain\Snowflake\Certifications\DAA-C01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Brain\Snowflake\Certifications\DAA-C01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553BCDE8-83EA-4EDF-B432-ABFF48CA0514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="2220" windowWidth="23415" windowHeight="12990" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1455" yWindow="2220" windowWidth="23415" windowHeight="12990" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Linear regression" sheetId="1" r:id="rId1"/>
@@ -22,6 +21,8 @@
     <sheet name="skewness" sheetId="7" r:id="rId7"/>
     <sheet name="denormalized schema" sheetId="9" r:id="rId8"/>
     <sheet name="A B testing uses a t-test" sheetId="10" r:id="rId9"/>
+    <sheet name="PERCENTILE_CONT and DISC" sheetId="11" r:id="rId10"/>
+    <sheet name="join" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="82">
   <si>
     <t>CORR | Snowflake Documentation</t>
   </si>
@@ -1140,12 +1141,18 @@
       </rPr>
       <t xml:space="preserve"> that your results are real, not just luck.</t>
     </r>
+  </si>
+  <si>
+    <t>A cartesian join, also known as a CROSS JOIN</t>
+  </si>
+  <si>
+    <t>A NATURAL JOIN in Snowflake SQL is a type of join that automatically combines rows from two tables based on columns that have the same name in both tables</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -2330,6 +2337,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>132733</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>209286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="238125"/>
+          <a:ext cx="4933333" cy="2114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2592,11 +2642,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2698,22 +2748,66 @@
   </sheetData>
   <phoneticPr fontId="4"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://docs.snowflake.com/en/sql-reference/functions/corr" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B23" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B24" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B41" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://docs.snowflake.com/en/sql-reference/functions/corr"/>
+    <hyperlink ref="B23" r:id="rId2"/>
+    <hyperlink ref="B24" r:id="rId3"/>
+    <hyperlink ref="B41" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="P54" sqref="P54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2798,8 +2892,8 @@
   </sheetData>
   <phoneticPr fontId="4"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B15" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B15" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -2808,7 +2902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FF99B9-E63C-4C0D-A0E4-8D01109A5FAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -2835,7 +2929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C74B32A-A131-43B2-BF81-4D83B2BA3525}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2857,7 +2951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD372014-25A2-4DF6-9911-694674337748}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2873,7 +2967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451EE663-A973-499F-A7AB-F97EECA312EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2964,11 +3058,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC57F92-C820-454D-A5FF-1DAA58C5D264}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3022,7 +3116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6494590-46B8-44FB-8585-AE2DB9990B27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3038,10 +3132,10 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEFB30C-20E2-448F-9DAF-42EDEC8CCE36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -3204,5 +3298,6 @@
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Brain/Snowflake/Certifications/DAA-C01/Study Resources.xlsx
+++ b/Brain/Snowflake/Certifications/DAA-C01/Study Resources.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Brain\Snowflake\Certifications\DAA-C01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duong\OneDrive\Máy tính\Study\Brain\Snowflake\Certifications\DAA-C01\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58EE1C6-9F70-432C-828D-CABF38BE09EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="2220" windowWidth="23415" windowHeight="12990" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="23415" windowHeight="12990" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Linear regression" sheetId="1" r:id="rId1"/>
@@ -23,6 +24,7 @@
     <sheet name="A B testing uses a t-test" sheetId="10" r:id="rId9"/>
     <sheet name="PERCENTILE_CONT and DISC" sheetId="11" r:id="rId10"/>
     <sheet name="join" sheetId="13" r:id="rId11"/>
+    <sheet name="SCD" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
   <si>
     <t>CORR | Snowflake Documentation</t>
   </si>
@@ -1147,12 +1149,21 @@
   </si>
   <si>
     <t>A NATURAL JOIN in Snowflake SQL is a type of join that automatically combines rows from two tables based on columns that have the same name in both tables</t>
+  </si>
+  <si>
+    <t>A Slowly Changing Dimension (SCD) is a data modeling technique for managing changes in dimensional attributes within a data warehouse.</t>
+  </si>
+  <si>
+    <t>SCDs track and preserve historical data as dimension attributes change, allowing for analysis of trends over time. </t>
+  </si>
+  <si>
+    <t>The most common types are Type 1 (overwrite old values), Type 2 (create a new row for each change), and Type 3 (add a column for the previous value). </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -2354,7 +2365,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2369,6 +2386,105 @@
         <a:xfrm>
           <a:off x="685800" y="238125"/>
           <a:ext cx="4933333" cy="2114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323038</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>113750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6035AA77-B7DE-306F-160B-094814A715EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="952500"/>
+          <a:ext cx="6495238" cy="4400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>81051</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10F6B695-7FCF-4C7A-A47B-F27945A34E3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="952500"/>
+          <a:ext cx="7772400" cy="3891051"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2642,7 +2758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
@@ -2748,10 +2864,10 @@
   </sheetData>
   <phoneticPr fontId="4"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://docs.snowflake.com/en/sql-reference/functions/corr"/>
-    <hyperlink ref="B23" r:id="rId2"/>
-    <hyperlink ref="B24" r:id="rId3"/>
-    <hyperlink ref="B41" r:id="rId4"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://docs.snowflake.com/en/sql-reference/functions/corr" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B23" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B24" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B41" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId5"/>
@@ -2759,7 +2875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2776,10 +2892,10 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -2802,8 +2918,40 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF9F4072-30E0-4BBA-9B5C-D1B79A6F4280}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2892,8 +3040,8 @@
   </sheetData>
   <phoneticPr fontId="4"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B15" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B15" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -2902,7 +3050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -2929,7 +3077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2951,7 +3099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2967,7 +3115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3058,7 +3206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3116,7 +3264,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3132,7 +3280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Brain/Snowflake/Certifications/DAA-C01/Study Resources.xlsx
+++ b/Brain/Snowflake/Certifications/DAA-C01/Study Resources.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duong\OneDrive\Máy tính\Study\Brain\Snowflake\Certifications\DAA-C01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Brain\Snowflake\Certifications\DAA-C01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58EE1C6-9F70-432C-828D-CABF38BE09EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="23415" windowHeight="12990" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="23415" windowHeight="12990" firstSheet="5" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Linear regression" sheetId="1" r:id="rId1"/>
@@ -25,6 +24,7 @@
     <sheet name="PERCENTILE_CONT and DISC" sheetId="11" r:id="rId10"/>
     <sheet name="join" sheetId="13" r:id="rId11"/>
     <sheet name="SCD" sheetId="14" r:id="rId12"/>
+    <sheet name="caching" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="86">
   <si>
     <t>CORR | Snowflake Documentation</t>
   </si>
@@ -1158,12 +1158,16 @@
   </si>
   <si>
     <t>The most common types are Type 1 (overwrite old values), Type 2 (create a new row for each change), and Type 3 (add a column for the previous value). </t>
+  </si>
+  <si>
+    <t>warehouse cache</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -1271,7 +1275,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1304,6 +1308,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1490,6 +1497,277 @@
         <a:xfrm>
           <a:off x="685800" y="12144375"/>
           <a:ext cx="3544889" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>599571</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104702</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="238125"/>
+          <a:ext cx="4028571" cy="580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>465552</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>189643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="1190625"/>
+          <a:ext cx="9380952" cy="6857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>361048</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123661</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10287000" y="1190625"/>
+          <a:ext cx="7219048" cy="1314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285286</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38006</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="8810625"/>
+          <a:ext cx="3714286" cy="752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>360705</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>56250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="8810625"/>
+          <a:ext cx="9961905" cy="7200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>94809</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>218988</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="16906875"/>
+          <a:ext cx="3523809" cy="695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190133</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>37946</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="16906875"/>
+          <a:ext cx="2933333" cy="1228571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2758,11 +3036,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24:X29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2864,10 +3142,10 @@
   </sheetData>
   <phoneticPr fontId="4"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://docs.snowflake.com/en/sql-reference/functions/corr" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B23" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B24" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B41" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://docs.snowflake.com/en/sql-reference/functions/corr"/>
+    <hyperlink ref="B23" r:id="rId2"/>
+    <hyperlink ref="B24" r:id="rId3"/>
+    <hyperlink ref="B41" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId5"/>
@@ -2875,7 +3153,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2892,7 +3170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2919,11 +3197,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF9F4072-30E0-4BBA-9B5C-D1B79A6F4280}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2946,15 +3224,41 @@
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="P12:P70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="Q71" sqref="Q71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="12" spans="16:16">
+      <c r="P12" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="1"/>
+    <row r="70" s="2" customFormat="1"/>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
@@ -3040,8 +3344,8 @@
   </sheetData>
   <phoneticPr fontId="4"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B15" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B15" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -3050,10 +3354,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
@@ -3077,7 +3381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3099,7 +3403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3115,11 +3419,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3206,7 +3510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3264,7 +3568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3280,7 +3584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Brain/Snowflake/Certifications/DAA-C01/Study Resources.xlsx
+++ b/Brain/Snowflake/Certifications/DAA-C01/Study Resources.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="23415" windowHeight="12990" firstSheet="5" activeTab="12"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="23415" windowHeight="12990" firstSheet="8" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Linear regression" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,8 @@
     <sheet name="join" sheetId="13" r:id="rId11"/>
     <sheet name="SCD" sheetId="14" r:id="rId12"/>
     <sheet name="caching" sheetId="15" r:id="rId13"/>
+    <sheet name="func and procedure" sheetId="16" r:id="rId14"/>
+    <sheet name="Variance and Standard Deviation" sheetId="17" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,17 +38,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="93">
   <si>
     <t>CORR | Snowflake Documentation</t>
   </si>
   <si>
     <t>correlation coefficient</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>https://docs.snowflake.com/en/sql-reference/functions/regr_intercept</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -73,19 +75,19 @@
       </rPr>
       <t>ng quan</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>intercept, slope</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>https://docs.snowflake.com/en/sql-reference/functions/regr_slope</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>standard deviation</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -252,7 +254,7 @@
   </si>
   <si>
     <t>https://docs.snowflake.com/sql-reference/functions/stddev</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -393,22 +395,22 @@
   </si>
   <si>
     <t>https://docs.snowflake.com/en/sql-reference/functions/generator</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>GENERATOR</t>
   </si>
   <si>
     <t>Creates rows of data based either on a specified number of rows, a specified generation period (in seconds), or both.</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>0 columns but possibly many rows</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>SEQ1 / SEQ2 / SEQ4 / SEQ8</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -532,27 +534,27 @@
   </si>
   <si>
     <t>https://docs.snowflake.com/en/sql-reference/functions/seq1</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>-128 to 127</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>–32,768 to 32,767</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>–2,147,483,648 to 2,147,483,647</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>–9,223,372,036,854,775,808 to 9,223,372,036,854,775,807</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Wrap-around: When the sequence reaches the largest number that can fit in that integer size, it wraps around back to the start.</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>a small table is copied (broadcast) to all compute nodes so it can be joined locally with a much larger table, avoiding expensive data shuffling across the cluster.</t>
@@ -1161,20 +1163,54 @@
   </si>
   <si>
     <t>warehouse cache</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>The function ignores differences in uppercase and lowercase for both the passed‑in parameters and the word return.</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>and the func doesn’t need to cast the params's data type</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>func</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>procedure</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>The procedure doesnt ignore differences in uppercase and lowercase for both the passed‑in parameters and the word return.</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>and the func need to cast the params's data type</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>In Snowflake JavaScript stored procedures, if your params are lowercase, u only can access them through the "arguments" array</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1268,10 +1304,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1279,37 +1315,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1768,6 +1804,472 @@
         <a:xfrm>
           <a:off x="4800600" y="16906875"/>
           <a:ext cx="2933333" cy="1228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>218533</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>18601</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="476250"/>
+          <a:ext cx="4333333" cy="3590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>218533</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>18601</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="476250"/>
+          <a:ext cx="4333333" cy="3590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>218533</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>18601</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="5953125"/>
+          <a:ext cx="4333333" cy="3590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>218533</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>18601</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="10001250"/>
+          <a:ext cx="4333333" cy="3590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>218533</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>227946</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="14049375"/>
+          <a:ext cx="4333333" cy="5228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>218533</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>228125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="14049375"/>
+          <a:ext cx="4333333" cy="3800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>218533</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>237470</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="19526250"/>
+          <a:ext cx="4333333" cy="5238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>208667</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>18810</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="238125"/>
+          <a:ext cx="7066667" cy="1923810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>151781</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66042</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="238125"/>
+          <a:ext cx="4952381" cy="5066667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>408838</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>151964</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="2381250"/>
+          <a:ext cx="5895238" cy="3485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>322952</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>85357</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="6191250"/>
+          <a:ext cx="7180952" cy="2942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>161048</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="6191250"/>
+          <a:ext cx="7019048" cy="2000000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3140,7 +3642,7 @@
     </row>
     <row r="50" spans="2:2" s="2" customFormat="1"/>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://docs.snowflake.com/en/sql-reference/functions/corr"/>
     <hyperlink ref="B23" r:id="rId2"/>
@@ -3162,7 +3664,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -3190,7 +3692,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3222,7 +3724,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -3233,7 +3735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="P12:P70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="Q71" sqref="Q71"/>
     </sheetView>
   </sheetViews>
@@ -3247,10 +3749,79 @@
     <row r="36" s="2" customFormat="1"/>
     <row r="70" s="2" customFormat="1"/>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B60"/>
+  <sheetViews>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="P45" sqref="P45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" s="2" customFormat="1">
+      <c r="A22" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3342,7 +3913,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B15" r:id="rId2"/>
@@ -3374,7 +3945,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3396,7 +3967,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3412,7 +3983,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3504,7 +4075,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3561,7 +4132,7 @@
       <c r="A9" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3577,7 +4148,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3748,7 +4319,7 @@
       <c r="A42" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Brain/Snowflake/Certifications/DAA-C01/Study Resources.xlsx
+++ b/Brain/Snowflake/Certifications/DAA-C01/Study Resources.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="23415" windowHeight="12990" firstSheet="8" activeTab="14"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="23415" windowHeight="12990" firstSheet="8" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Linear regression" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="caching" sheetId="15" r:id="rId13"/>
     <sheet name="func and procedure" sheetId="16" r:id="rId14"/>
     <sheet name="Variance and Standard Deviation" sheetId="17" r:id="rId15"/>
+    <sheet name="Sharing" sheetId="18" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="105">
   <si>
     <t>CORR | Snowflake Documentation</t>
   </si>
@@ -1191,13 +1192,275 @@
   </si>
   <si>
     <t>In Snowflake JavaScript stored procedures, if your params are lowercase, u only can access them through the "arguments" array</t>
+  </si>
+  <si>
+    <t>I wanna share my DB (my current account is ZEB11015) with MY_NEW_ACCOUNT, but we don't have the same region</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>share success</t>
+  </si>
+  <si>
+    <t>all users in the DTS account can access the shared DB if they have the IMPORT SHARE privilege</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Access and install listings as a consumer | Snowflake Documentation</t>
+  </si>
+  <si>
+    <t>Cannot re-share the DB obtained from the marketplace.</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>if user don’t have the CREATE DATABASE privilege, they only can see the SHARE_LIBRARY, but they cant get the data</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I have a user named </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>DAA_C01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> who has been granted </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>ROLE_A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DAA_C01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> has a shared database called </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>WORLDWIDE_ADDRESS_DATA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, which was obtained from marketplace.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Now </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>DAA_C01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> need to reshare this database with user </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>SHARED_USER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, who has </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>ROLE_B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We just need to grant </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>IMPORTED PRIVILEGES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> privilege to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>ROLE_B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>SHARED_USER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> can access </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>WORLDWIDE_ADDRESS_DATA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Grant privileges to other roles | Snowflake Documentation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1277,6 +1540,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1311,7 +1581,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1348,6 +1618,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2274,6 +2547,827 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28" descr="https://img-c.udemycdn.com/redactor/raw/practice_test_question_explanation/2025-12-02_04-12-02-56f3c27a8c639acfa3506f2753305814.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="23336250"/>
+          <a:ext cx="17840325" cy="8934450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>8838</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>27470</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="13573125"/>
+          <a:ext cx="5495238" cy="8838095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>475505</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>133214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="11430000"/>
+          <a:ext cx="5961905" cy="1085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>617162</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>180565</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="238125"/>
+          <a:ext cx="15704762" cy="3276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>408581</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>28214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="3810000"/>
+          <a:ext cx="7952381" cy="2885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7219950" y="3324225"/>
+          <a:ext cx="2905125" cy="2981325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3762376" y="12201525"/>
+          <a:ext cx="704850" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4486275" y="2638425"/>
+          <a:ext cx="5648326" cy="5762625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>227886</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>199494</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="9286875"/>
+          <a:ext cx="5714286" cy="4247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2543175" y="11001375"/>
+          <a:ext cx="4429125" cy="6534150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>227886</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>37887</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="238125"/>
+          <a:ext cx="5714286" cy="1704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>217933</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="238125"/>
+          <a:ext cx="9133333" cy="3047619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9544050" y="15640049"/>
+          <a:ext cx="2628900" cy="3609975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectangle 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6943725" y="21678900"/>
+          <a:ext cx="1143000" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29" descr="https://img-c.udemycdn.com/redactor/raw/practice_test_question_explanation/2025-12-02_04-12-02-09d23a7a98a6c4c80094b01c8c6418f8.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="33337500"/>
+          <a:ext cx="4591050" cy="3790950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30" descr="https://img-c.udemycdn.com/redactor/raw/practice_test_question_explanation/2025-12-02_04-12-03-2f1638c4b283a84b8cb462af1dcc6beb.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5486400" y="33337500"/>
+          <a:ext cx="6810375" cy="8867775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31" descr="https://img-c.udemycdn.com/redactor/raw/practice_test_question_explanation/2025-12-02_04-12-03-901d3f68833e275bd546e1e8a536d62c.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="42624375"/>
+          <a:ext cx="18278475" cy="8743950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3813,7 +4907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
@@ -3821,7 +4915,96 @@
   <sheetData/>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:B218"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="F221" sqref="F221"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" s="2" customFormat="1"/>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" s="2" customFormat="1"/>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" s="2" customFormat="1"/>
+    <row r="97" spans="2:2">
+      <c r="B97" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="1"/>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2">
+      <c r="B218" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5"/>
+  <hyperlinks>
+    <hyperlink ref="B57" r:id="rId1" location="access-a-private-listing" display="https://docs.snowflake.com/en/collaboration/consumer-listings-access - access-a-private-listing"/>
+    <hyperlink ref="B218" r:id="rId2" location="granting-the-imported-privileges-privilege-to-other-roles" display="https://docs.snowflake.com/en/user-guide/data-exchange-marketplace-privileges - granting-the-imported-privileges-privilege-to-other-roles"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/Brain/Snowflake/Certifications/DAA-C01/Study Resources.xlsx
+++ b/Brain/Snowflake/Certifications/DAA-C01/Study Resources.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="23415" windowHeight="12990" firstSheet="8" activeTab="15"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="23415" windowHeight="12990" firstSheet="8" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Linear regression" sheetId="1" r:id="rId1"/>
@@ -1171,10 +1171,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>and the func doesn’t need to cast the params's data type</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>func</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -1191,9 +1187,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>In Snowflake JavaScript stored procedures, if your params are lowercase, u only can access them through the "arguments" array</t>
-  </si>
-  <si>
     <t>I wanna share my DB (my current account is ZEB11015) with MY_NEW_ACCOUNT, but we don't have the same region</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -1454,6 +1447,14 @@
   </si>
   <si>
     <t>Grant privileges to other roles | Snowflake Documentation</t>
+  </si>
+  <si>
+    <t>Additionally, the function does not need to cast the data type of the parameters.</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>In Snowflake JavaScript stored procedures, if your params are lowercase, u only can access them through the "arguments" array</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
@@ -4829,8 +4830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="P12:P70"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="Q71" sqref="Q71"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="M83" sqref="M83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4854,15 +4855,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="P45" sqref="P45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:1" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -4872,27 +4873,27 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:1" s="2" customFormat="1">
       <c r="A22" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4907,7 +4908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
@@ -4924,7 +4925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+    <sheetView topLeftCell="A202" workbookViewId="0">
       <selection activeCell="F221" sqref="F221"/>
     </sheetView>
   </sheetViews>
@@ -4932,45 +4933,45 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="2:2" s="2" customFormat="1"/>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="2:2" s="2" customFormat="1"/>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" s="2" customFormat="1"/>
     <row r="97" spans="2:2">
       <c r="B97" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="110" spans="2:2">
@@ -4978,22 +4979,22 @@
     </row>
     <row r="138" spans="2:2">
       <c r="B138" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="218" spans="2:2">
       <c r="B218" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
